--- a/Ethanol/MIXTURE_FRAC.xlsx
+++ b/Ethanol/MIXTURE_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84836A8D-E071-45CD-B9D1-D4AA47A0A602}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C431612F-9578-42C9-A60D-68B13261FAB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{731E9A78-AC03-4879-978D-E505B2995A9C}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{731E9A78-AC03-4879-978D-E505B2995A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,22 +629,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.41755135362180379</v>
+        <v>0.43004683669485833</v>
       </c>
       <c r="C2">
-        <v>6.0330929132200319E-2</v>
+        <v>6.5792579971812995E-2</v>
       </c>
       <c r="D2">
-        <v>1.8462381357456112E-3</v>
+        <v>2.013374763827775E-3</v>
       </c>
       <c r="E2">
-        <v>9.217065489178651E-2</v>
+        <v>9.6448517728695574E-2</v>
       </c>
       <c r="F2">
-        <v>5.7906085005560324E-3</v>
+        <v>6.3148219054188839E-3</v>
       </c>
       <c r="G2">
-        <v>1.7069522199493484E-2</v>
+        <v>1.8614795438172856E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -653,34 +653,34 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.37139767633220733</v>
+        <v>0.40501964204609781</v>
       </c>
       <c r="K2">
-        <v>0.29668137710767722</v>
+        <v>0.32353941022079152</v>
       </c>
       <c r="L2">
-        <v>4.8319419311658443E-3</v>
+        <v>5.2693689704127224E-3</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.0086292606856727E-2</v>
+        <v>4.3715232800922883E-2</v>
       </c>
       <c r="O2">
-        <v>2.0415683473302294E-2</v>
+        <v>2.2636909633802143E-2</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.0430912153718739E-2</v>
+        <v>8.7712178416543682E-4</v>
       </c>
       <c r="R2">
-        <v>6.2505649790274044E-4</v>
+        <v>6.8164174191738633E-4</v>
       </c>
       <c r="S2">
-        <v>8.3231070373870081E-3</v>
+        <v>9.0765829939618049E-3</v>
       </c>
       <c r="T2">
         <v>1.5329983205790762E-4</v>
@@ -691,22 +691,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.30430752984299103</v>
+        <v>0.30761003593108083</v>
       </c>
       <c r="C3">
-        <v>6.9286534809149272E-2</v>
+        <v>7.7076794564203896E-2</v>
       </c>
       <c r="D3">
-        <v>2.2633108757052892E-3</v>
+        <v>2.5177871556455594E-3</v>
       </c>
       <c r="E3">
-        <v>9.9053794123192165E-2</v>
+        <v>0.10316862828532596</v>
       </c>
       <c r="F3">
-        <v>7.0185201983794113E-3</v>
+        <v>7.8076503748571238E-3</v>
       </c>
       <c r="G3">
-        <v>2.1244235053165288E-2</v>
+        <v>2.3632839272115781E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -715,34 +715,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.45421914812898656</v>
+        <v>0.50528946300894473</v>
       </c>
       <c r="K3">
-        <v>0.17156103176455542</v>
+        <v>0.19085056623142529</v>
       </c>
       <c r="L3">
-        <v>2.2704723295338468E-3</v>
+        <v>2.5257538104515071E-3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.6997276144221029E-2</v>
+        <v>5.2281434024998283E-2</v>
       </c>
       <c r="O3">
-        <v>2.0309452471816453E-2</v>
+        <v>2.2949445091028142E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.6039696004897868E-2</v>
+        <v>1.0683795833300379E-3</v>
       </c>
       <c r="R3">
-        <v>5.7477406700735876E-4</v>
+        <v>6.3939902328191082E-4</v>
       </c>
       <c r="S3">
-        <v>9.161754029389917E-3</v>
+        <v>1.0191859574391731E-2</v>
       </c>
       <c r="T3">
         <v>1.6624963613273496E-4</v>
@@ -753,22 +753,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.21676301861531552</v>
+        <v>0.21074340356531476</v>
       </c>
       <c r="C4">
-        <v>7.9052244151417539E-2</v>
+        <v>8.7804490758976741E-2</v>
       </c>
       <c r="D4">
-        <v>2.149941740746977E-3</v>
+        <v>2.3879719258339525E-3</v>
       </c>
       <c r="E4">
-        <v>0.10892584220005247</v>
+        <v>0.11256499023189617</v>
       </c>
       <c r="F4">
-        <v>8.1223070231229953E-3</v>
+        <v>9.0215659227504252E-3</v>
       </c>
       <c r="G4">
-        <v>2.6396509465786894E-2</v>
+        <v>2.9318991463651786E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -777,34 +777,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.52352465824614802</v>
+        <v>0.58148654109076403</v>
       </c>
       <c r="K4">
-        <v>7.5114924390135729E-2</v>
+        <v>8.343125176613525E-2</v>
       </c>
       <c r="L4">
-        <v>4.1661439505980957E-3</v>
+        <v>4.62739738684949E-3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.9769085663097595E-2</v>
+        <v>5.5279255751651102E-2</v>
       </c>
       <c r="O4">
-        <v>2.0056079024035323E-2</v>
+        <v>2.2605332306107888E-2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9.3326857634711893E-2</v>
+        <v>1.0365951399248742E-3</v>
       </c>
       <c r="R4">
-        <v>5.3465228770454209E-4</v>
+        <v>5.9384616286288494E-4</v>
       </c>
       <c r="S4">
-        <v>8.8607542224420043E-3</v>
+        <v>9.841770092595431E-3</v>
       </c>
       <c r="T4">
         <v>2.1338869128776614E-4</v>
@@ -815,22 +815,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.16131286945762893</v>
+        <v>0.15299997866955595</v>
       </c>
       <c r="C5">
-        <v>7.8214893358309015E-2</v>
+        <v>8.4703981571919135E-2</v>
       </c>
       <c r="D5">
-        <v>1.6031980712891197E-3</v>
+        <v>1.7362071858170436E-3</v>
       </c>
       <c r="E5">
-        <v>0.10955936436858141</v>
+        <v>0.10935737378585704</v>
       </c>
       <c r="F5">
-        <v>9.0858472054518458E-3</v>
+        <v>9.8396533091239993E-3</v>
       </c>
       <c r="G5">
-        <v>4.3419658141204465E-2</v>
+        <v>4.7021964297812413E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.58090022305626243</v>
+        <v>0.62909453271861049</v>
       </c>
       <c r="K5">
-        <v>4.9740354537921062E-2</v>
+        <v>5.386705642951832E-2</v>
       </c>
       <c r="L5">
-        <v>1.5378783395406015E-3</v>
+        <v>1.6654682112209552E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.8709439303826094E-2</v>
+        <v>4.1920962781729416E-2</v>
       </c>
       <c r="O5">
-        <v>1.2132150096710675E-2</v>
+        <v>1.3250545809432168E-2</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.8820751747556516E-2</v>
+        <v>7.4530456253206316E-4</v>
       </c>
       <c r="R5">
-        <v>3.3354407132059821E-4</v>
+        <v>3.6121651078824209E-4</v>
       </c>
       <c r="S5">
-        <v>5.9426977020261024E-3</v>
+        <v>6.4357328256387696E-3</v>
       </c>
       <c r="T5">
         <v>2.2345287841562286E-4</v>
@@ -877,22 +877,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.12613637372836756</v>
+        <v>0.12189878878308148</v>
       </c>
       <c r="C6">
-        <v>7.1171130210571948E-2</v>
+        <v>7.5092182925827089E-2</v>
       </c>
       <c r="D6">
-        <v>1.2926485292309631E-3</v>
+        <v>1.3638648076631798E-3</v>
       </c>
       <c r="E6">
-        <v>9.514744633183303E-2</v>
+        <v>8.3133870967456211E-2</v>
       </c>
       <c r="F6">
-        <v>9.9339566740979622E-3</v>
+        <v>1.0481251169421474E-2</v>
       </c>
       <c r="G6">
-        <v>6.4096978762170936E-2</v>
+        <v>6.7628293100884765E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -901,34 +901,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.63735367704486634</v>
+        <v>0.67246759695256797</v>
       </c>
       <c r="K6">
-        <v>3.9119728766073093E-2</v>
+        <v>4.1274963876776323E-2</v>
       </c>
       <c r="L6">
-        <v>8.8356990711251527E-4</v>
+        <v>9.3224869264185684E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.217084188442422E-2</v>
+        <v>3.3943239857447106E-2</v>
       </c>
       <c r="O6">
-        <v>8.0984559264809259E-3</v>
+        <v>8.5438673600248087E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.6223501575385009E-2</v>
+        <v>3.8219173960915207E-4</v>
       </c>
       <c r="R6">
-        <v>2.689907333347693E-4</v>
+        <v>2.8381032158916655E-4</v>
       </c>
       <c r="S6">
-        <v>4.2390736544183055E-3</v>
+        <v>4.4726182280908815E-3</v>
       </c>
       <c r="T6">
         <v>2.6387887471105299E-4</v>
@@ -939,22 +939,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>5.9413690252692858E-2</v>
+        <v>6.1077236524446056E-2</v>
       </c>
       <c r="C7">
-        <v>5.7386333283958549E-2</v>
+        <v>5.91146853229862E-2</v>
       </c>
       <c r="D7">
-        <v>4.1414824249921258E-4</v>
+        <v>4.2662149036889866E-4</v>
       </c>
       <c r="E7">
-        <v>6.9706248429352372E-2</v>
+        <v>4.18187878274685E-2</v>
       </c>
       <c r="F7">
-        <v>1.113230867529013E-2</v>
+        <v>1.1467589695996176E-2</v>
       </c>
       <c r="G7">
-        <v>0.11693609641944866</v>
+        <v>0.12045795831786313</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -963,22 +963,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.71242252949718465</v>
+        <v>0.73387915272161863</v>
       </c>
       <c r="K7">
-        <v>1.3793254817495602E-2</v>
+        <v>1.4208677771436284E-2</v>
       </c>
       <c r="L7">
-        <v>1.374167080882852E-4</v>
+        <v>1.4155540164177707E-4</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.3330951067471649E-2</v>
+        <v>1.3732450433978187E-2</v>
       </c>
       <c r="O7">
-        <v>3.2364604888634597E-3</v>
+        <v>3.2029638236527351E-3</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.2454215482102617E-4</v>
+        <v>1.2829309472103174E-4</v>
       </c>
       <c r="S7">
-        <v>1.3797102155265523E-3</v>
+        <v>1.4212640982685114E-3</v>
       </c>
       <c r="T7">
         <v>1.7325510395039498E-4</v>
@@ -1001,22 +1001,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.8146181993748342E-2</v>
+        <v>3.9289876159449184E-2</v>
       </c>
       <c r="C8">
-        <v>5.1876490646184444E-2</v>
+        <v>5.3653120840902499E-2</v>
       </c>
       <c r="D8">
-        <v>1.6517873863237259E-4</v>
+        <v>1.7083566590182157E-4</v>
       </c>
       <c r="E8">
-        <v>6.00426127992085E-2</v>
+        <v>2.8029364225882401E-2</v>
       </c>
       <c r="F8">
-        <v>1.1307807967100052E-2</v>
+        <v>1.1695069958421761E-2</v>
       </c>
       <c r="G8">
-        <v>0.13652269254169341</v>
+        <v>0.14119822735163381</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.72802604381780633</v>
+        <v>0.75295897655625055</v>
       </c>
       <c r="K8">
-        <v>4.6298447657053508E-3</v>
+        <v>4.7884044891012599E-3</v>
       </c>
       <c r="L8">
-        <v>1.7340710600147748E-5</v>
+        <v>1.7934583270915156E-5</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.6446611020088853E-3</v>
+        <v>5.837975553851381E-3</v>
       </c>
       <c r="O8">
-        <v>1.3721096751511789E-3</v>
+        <v>1.2413384121522566E-3</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.4349891268950965E-5</v>
+        <v>1.4841336426512224E-5</v>
       </c>
       <c r="S8">
-        <v>3.8086734464021313E-4</v>
+        <v>3.9391102620466104E-4</v>
       </c>
       <c r="T8">
         <v>8.3146759422740831E-5</v>
@@ -1063,22 +1063,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.7360648933124147E-2</v>
+        <v>1.7997503825799281E-2</v>
       </c>
       <c r="C9">
-        <v>3.1608928974327627E-2</v>
+        <v>3.2778501129252263E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.4476183177226765E-2</v>
+        <v>1.9490552095827562E-2</v>
       </c>
       <c r="F9">
-        <v>1.1359505697066657E-2</v>
+        <v>1.1779822423640576E-2</v>
       </c>
       <c r="G9">
-        <v>0.16998653817512058</v>
+        <v>0.17627626478759537</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.73176888672439244</v>
+        <v>0.75884530283606022</v>
       </c>
       <c r="K9">
-        <v>5.489956031041918E-5</v>
+        <v>5.6930916611950985E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.9422412108694545E-4</v>
+        <v>6.1621119905381724E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1.5083357046850759E-4</v>
+        <v>1.5641461195811668E-4</v>
       </c>
       <c r="T9">
         <v>7.7674291540075815E-5</v>
@@ -1125,22 +1125,22 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>9.9844603027613287E-3</v>
+        <v>1.0361336461634245E-2</v>
       </c>
       <c r="C10">
-        <v>1.8963197761713291E-2</v>
+        <v>1.9683246372609625E-2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.1897757449408159E-2</v>
+        <v>1.5897515754171119E-2</v>
       </c>
       <c r="F10">
-        <v>1.1337071955692449E-2</v>
+        <v>1.1767550138534045E-2</v>
       </c>
       <c r="G10">
-        <v>0.18807328956183159</v>
+        <v>0.19521459097087546</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.72972868327135465</v>
+        <v>0.75743709676380966</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1283,22 +1283,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.14634549666133012</v>
+        <v>0.15923348796185685</v>
       </c>
       <c r="C2">
-        <v>4.4608561314665686E-3</v>
+        <v>5.3279650586735804E-3</v>
       </c>
       <c r="D2">
-        <v>2.2784710561046627E-4</v>
+        <v>2.5721821899577331E-4</v>
       </c>
       <c r="E2">
-        <v>1.4717204258715829E-2</v>
+        <v>2.1125747187649098E-2</v>
       </c>
       <c r="F2">
-        <v>7.155920180621499E-4</v>
+        <v>8.077642260364222E-4</v>
       </c>
       <c r="G2">
-        <v>6.7805184776921611E-3</v>
+        <v>7.419862562891605E-3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1307,34 +1307,34 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.2974901462349557E-2</v>
+        <v>4.8737127291045054E-2</v>
       </c>
       <c r="K2">
-        <v>0.14559186413368941</v>
+        <v>0.15913123121651016</v>
       </c>
       <c r="L2">
-        <v>4.1965937057398948E-4</v>
+        <v>4.896256057201581E-4</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.1686154302144965E-3</v>
+        <v>3.744984732390363E-3</v>
       </c>
       <c r="O2">
-        <v>3.6777965462937703E-3</v>
+        <v>4.1692576612598377E-3</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.7459402443315729E-2</v>
+        <v>5.1836831740199472E-4</v>
       </c>
       <c r="R2">
-        <v>5.173352555694934E-5</v>
+        <v>6.0743064495573661E-5</v>
       </c>
       <c r="S2">
-        <v>1.1727542368297024E-3</v>
+        <v>1.3135870749869005E-3</v>
       </c>
       <c r="T2">
         <v>4.371559165846362E-5</v>
@@ -1345,22 +1345,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.79563202944797E-2</v>
+        <v>8.513931925459621E-2</v>
       </c>
       <c r="C3">
-        <v>6.644779272883275E-3</v>
+        <v>6.7806616344282204E-3</v>
       </c>
       <c r="D3">
-        <v>4.6726298067348662E-4</v>
+        <v>5.1083102000759573E-4</v>
       </c>
       <c r="E3">
-        <v>1.5374453596099036E-2</v>
+        <v>2.1971158519003459E-2</v>
       </c>
       <c r="F3">
-        <v>7.0752843972595055E-4</v>
+        <v>7.2842734867175143E-4</v>
       </c>
       <c r="G3">
-        <v>1.7058474473231045E-2</v>
+        <v>1.8954980843573988E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1369,34 +1369,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.6200139340890969E-2</v>
+        <v>4.7635288781839848E-2</v>
       </c>
       <c r="K3">
-        <v>7.6111143560286115E-2</v>
+        <v>8.4354504285639648E-2</v>
       </c>
       <c r="L3">
-        <v>5.0159262761266532E-4</v>
+        <v>5.4959074957140188E-4</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0224278752409546E-2</v>
+        <v>1.1197268487390572E-2</v>
       </c>
       <c r="O3">
-        <v>5.4818256629350481E-3</v>
+        <v>6.1788988981387183E-3</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.4631120938991652E-2</v>
+        <v>4.9481340975486695E-4</v>
       </c>
       <c r="R3">
-        <v>1.7591242864021571E-4</v>
+        <v>1.9416208102061668E-4</v>
       </c>
       <c r="S3">
-        <v>2.4884321085366264E-3</v>
+        <v>2.7407257949966534E-3</v>
       </c>
       <c r="T3">
         <v>7.7727657607547717E-5</v>
@@ -1407,22 +1407,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.837900148854071E-2</v>
+        <v>1.2620767591445743E-2</v>
       </c>
       <c r="C4">
-        <v>4.1420028440437313E-3</v>
+        <v>3.1736983490393148E-3</v>
       </c>
       <c r="D4">
-        <v>1.3358131022530968E-4</v>
+        <v>1.175115055833802E-4</v>
       </c>
       <c r="E4">
-        <v>1.8608189171360656E-2</v>
+        <v>2.7177514962809457E-2</v>
       </c>
       <c r="F4">
-        <v>4.5558121075323056E-4</v>
+        <v>3.7276112320678152E-4</v>
       </c>
       <c r="G4">
-        <v>1.4290099015056368E-3</v>
+        <v>1.1324458633910476E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1431,34 +1431,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.6491957360962246E-2</v>
+        <v>1.9476067637230528E-2</v>
       </c>
       <c r="K4">
-        <v>1.1373065793816597E-2</v>
+        <v>1.222938086755314E-2</v>
       </c>
       <c r="L4">
-        <v>7.0181168924386857E-4</v>
+        <v>7.5949325651927314E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.6290551669450575E-3</v>
+        <v>2.0323201533946219E-3</v>
       </c>
       <c r="O4">
-        <v>1.8114132254190602E-3</v>
+        <v>1.8672720392113899E-3</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.7377941314044145E-2</v>
+        <v>5.247626967914375E-4</v>
       </c>
       <c r="R4">
-        <v>4.1776348017577045E-5</v>
+        <v>4.0567146390901849E-5</v>
       </c>
       <c r="S4">
-        <v>6.0840470880829298E-4</v>
+        <v>5.6328440586216597E-4</v>
       </c>
       <c r="T4">
         <v>6.6629576496940451E-5</v>
@@ -1469,22 +1469,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.6104804131643932E-2</v>
+        <v>1.3816485566714588E-2</v>
       </c>
       <c r="C5">
-        <v>3.438267633772093E-3</v>
+        <v>2.8194493152622758E-3</v>
       </c>
       <c r="D5">
-        <v>3.0301537752364528E-4</v>
+        <v>3.2434616481069329E-4</v>
       </c>
       <c r="E5">
-        <v>1.6376934684276454E-2</v>
+        <v>2.324031309149821E-2</v>
       </c>
       <c r="F5">
-        <v>6.1290364509368738E-4</v>
+        <v>6.0062024248207604E-4</v>
       </c>
       <c r="G5">
-        <v>1.3617652779072294E-2</v>
+        <v>1.4685504103466781E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1493,34 +1493,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.5193963504391947E-2</v>
+        <v>3.3561499129226353E-2</v>
       </c>
       <c r="K5">
-        <v>1.1357048389211788E-2</v>
+        <v>1.2201642713343452E-2</v>
       </c>
       <c r="L5">
-        <v>3.4530985877446015E-4</v>
+        <v>3.7088817123578704E-4</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.9389690518209786E-3</v>
+        <v>7.4176293905155542E-3</v>
       </c>
       <c r="O5">
-        <v>1.1250630110628778E-3</v>
+        <v>1.1845977710796386E-3</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.2572189705147664E-2</v>
+        <v>3.520956187667817E-4</v>
       </c>
       <c r="R5">
-        <v>3.6213469533368898E-5</v>
+        <v>3.7821569009973256E-5</v>
       </c>
       <c r="S5">
-        <v>1.2507784506611817E-3</v>
+        <v>1.3418849259067757E-3</v>
       </c>
       <c r="T5">
         <v>6.9835329637366311E-5</v>
@@ -1531,22 +1531,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.6959141659144629E-2</v>
+        <v>3.8073038275615825E-2</v>
       </c>
       <c r="C6">
-        <v>1.1101665451666819E-2</v>
+        <v>1.1665464541891973E-2</v>
       </c>
       <c r="D6">
-        <v>1.0252476481259448E-3</v>
+        <v>1.0815614206168684E-3</v>
       </c>
       <c r="E6">
-        <v>1.2294923556967824E-2</v>
+        <v>1.584192312664379E-2</v>
       </c>
       <c r="F6">
-        <v>6.6329084093118881E-4</v>
+        <v>6.8409279087804835E-4</v>
       </c>
       <c r="G6">
-        <v>4.3229653036914673E-2</v>
+        <v>4.560137442270322E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1555,34 +1555,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.2211934992698957E-2</v>
+        <v>4.3519178835222161E-2</v>
       </c>
       <c r="K6">
-        <v>3.0463440931326739E-2</v>
+        <v>3.2136516895387116E-2</v>
       </c>
       <c r="L6">
-        <v>1.1151107261397981E-3</v>
+        <v>1.1764726192002549E-3</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.1581979282137474E-2</v>
+        <v>2.2765984649702305E-2</v>
       </c>
       <c r="O6">
-        <v>4.3442324491824074E-3</v>
+        <v>4.6906305668642711E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.7092146659164186E-2</v>
+        <v>2.8579675495006194E-4</v>
       </c>
       <c r="R6">
-        <v>5.0892580719488562E-5</v>
+        <v>5.3547484684318221E-5</v>
       </c>
       <c r="S6">
-        <v>3.4427902111657653E-3</v>
+        <v>3.631918836751586E-3</v>
       </c>
       <c r="T6">
         <v>6.6012725573775084E-5</v>
@@ -1593,22 +1593,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.100270530737057E-2</v>
+        <v>1.1344508156274398E-2</v>
       </c>
       <c r="C7">
-        <v>1.2387706084331733E-2</v>
+        <v>1.2779328287624731E-2</v>
       </c>
       <c r="D7">
-        <v>2.5306806937469995E-4</v>
+        <v>2.6073720629951277E-4</v>
       </c>
       <c r="E7">
-        <v>2.8445468676350671E-2</v>
+        <v>3.9314553534502056E-2</v>
       </c>
       <c r="F7">
-        <v>4.2599873718202075E-4</v>
+        <v>4.5867373002521366E-4</v>
       </c>
       <c r="G7">
-        <v>2.3581477957187898E-2</v>
+        <v>2.4332117685729345E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1617,22 +1617,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.1380116324232555E-2</v>
+        <v>2.3622066691873458E-2</v>
       </c>
       <c r="K7">
-        <v>7.3450603728759112E-3</v>
+        <v>7.5680843629037731E-3</v>
       </c>
       <c r="L7">
-        <v>9.1320405988607871E-5</v>
+        <v>9.408520238725106E-5</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.89427407725375E-3</v>
+        <v>6.0738997139665792E-3</v>
       </c>
       <c r="O7">
-        <v>1.2521609662285767E-3</v>
+        <v>1.3208606131390047E-3</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>2.6176460616393187E-5</v>
+        <v>2.7006142240492048E-5</v>
       </c>
       <c r="S7">
-        <v>6.7459551150207079E-4</v>
+        <v>6.9510968571263735E-4</v>
       </c>
       <c r="T7">
         <v>7.7299035139329197E-5</v>
@@ -1655,22 +1655,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2.2297544083325922E-3</v>
+        <v>2.3045209761390823E-3</v>
       </c>
       <c r="C8">
-        <v>1.5283492157174099E-3</v>
+        <v>1.5668722048705821E-3</v>
       </c>
       <c r="D8">
-        <v>4.2575620925147119E-5</v>
+        <v>4.4028713838205708E-5</v>
       </c>
       <c r="E8">
-        <v>8.5276436083483193E-3</v>
+        <v>6.5758945842905731E-3</v>
       </c>
       <c r="F8">
-        <v>4.0085615237319284E-4</v>
+        <v>4.1208445019591701E-4</v>
       </c>
       <c r="G8">
-        <v>7.7138466176587513E-3</v>
+        <v>7.9591232452922208E-3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1679,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.8576004606699177E-2</v>
+        <v>1.8987931650937023E-2</v>
       </c>
       <c r="K8">
-        <v>1.6333819089981141E-3</v>
+        <v>1.6892182998378275E-3</v>
       </c>
       <c r="L8">
-        <v>7.7619872002635786E-6</v>
+        <v>8.0275116674694001E-6</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.498366349373219E-3</v>
+        <v>1.5495152022975004E-3</v>
       </c>
       <c r="O8">
-        <v>3.9370292386924701E-4</v>
+        <v>4.166486339669816E-4</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.8713056729794949E-5</v>
+        <v>2.9696345613990662E-5</v>
       </c>
       <c r="S8">
-        <v>1.3042065810004065E-4</v>
+        <v>1.3487852372434547E-4</v>
       </c>
       <c r="T8">
         <v>5.7561296149109135E-5</v>
@@ -1717,22 +1717,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.4635353489278024E-3</v>
+        <v>1.5165843761471602E-3</v>
       </c>
       <c r="C9">
-        <v>2.7493386715372547E-3</v>
+        <v>2.8493355623993573E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.8272694018522507E-3</v>
+        <v>3.7176186723718277E-3</v>
       </c>
       <c r="F9">
-        <v>7.1861092520552781E-4</v>
+        <v>7.4434429361880979E-4</v>
       </c>
       <c r="G9">
-        <v>9.0737002087717712E-3</v>
+        <v>9.3942515285742132E-3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1741,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.7466523489922667E-2</v>
+        <v>3.878466662670145E-2</v>
       </c>
       <c r="K9">
-        <v>1.1248338998476932E-5</v>
+        <v>1.1663265482045518E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.0107097313611637E-5</v>
+        <v>4.1549137814739246E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>3.0186360348959833E-4</v>
+        <v>3.1303259669045993E-4</v>
       </c>
       <c r="T9">
         <v>4.8093948819845421E-5</v>
@@ -1779,22 +1779,22 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>9.226448254562573E-4</v>
+        <v>9.5546320481196246E-4</v>
       </c>
       <c r="C10">
-        <v>1.7559499842083536E-3</v>
+        <v>1.8188872300457179E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.6299880027920503E-3</v>
+        <v>3.01793907618243E-3</v>
       </c>
       <c r="F10">
-        <v>4.9906278174938104E-4</v>
+        <v>5.1329555784766832E-4</v>
       </c>
       <c r="G10">
-        <v>4.035942848937794E-3</v>
+        <v>4.0262305150694988E-3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.9267331735013292E-2</v>
+        <v>1.9488515560554014E-2</v>
       </c>
       <c r="K10">
         <v>0</v>

--- a/Ethanol/MIXTURE_FRAC.xlsx
+++ b/Ethanol/MIXTURE_FRAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C431612F-9578-42C9-A60D-68B13261FAB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2443D2-B908-4B04-8E1C-924E9F7E3A91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{731E9A78-AC03-4879-978D-E505B2995A9C}"/>
   </bookViews>
@@ -691,22 +691,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.30761003593108083</v>
+        <v>0.29522506278034721</v>
       </c>
       <c r="C3">
-        <v>7.7076794564203896E-2</v>
+        <v>7.8565549653085029E-2</v>
       </c>
       <c r="D3">
-        <v>2.5177871556455594E-3</v>
+        <v>2.56641876340611E-3</v>
       </c>
       <c r="E3">
-        <v>0.10316862828532596</v>
+        <v>0.1051613528302566</v>
       </c>
       <c r="F3">
-        <v>7.8076503748571238E-3</v>
+        <v>7.9584568438273769E-3</v>
       </c>
       <c r="G3">
-        <v>2.3632839272115781E-2</v>
+        <v>2.4089312714349616E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -715,34 +715,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.50528946300894473</v>
+        <v>0.51504923913437728</v>
       </c>
       <c r="K3">
-        <v>0.19085056623142529</v>
+        <v>0.1729404147583711</v>
       </c>
       <c r="L3">
-        <v>2.5257538104515071E-3</v>
+        <v>4.8557930702327569E-3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.2281434024998283E-2</v>
+        <v>5.3291261319955194E-2</v>
       </c>
       <c r="O3">
-        <v>2.2949445091028142E-2</v>
+        <v>2.339271862568203E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.0683795833300379E-3</v>
+        <v>1.0890155678767797E-3</v>
       </c>
       <c r="R3">
-        <v>6.3939902328191082E-4</v>
+        <v>6.5174915479839E-4</v>
       </c>
       <c r="S3">
-        <v>1.0191859574391731E-2</v>
+        <v>1.0388717563781761E-2</v>
       </c>
       <c r="T3">
         <v>1.6624963613273496E-4</v>
@@ -753,22 +753,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.21074340356531476</v>
+        <v>0.2015179433660802</v>
       </c>
       <c r="C4">
-        <v>8.7804490758976741E-2</v>
+        <v>8.9018543910947337E-2</v>
       </c>
       <c r="D4">
-        <v>2.3879719258339525E-3</v>
+        <v>2.4209898821857989E-3</v>
       </c>
       <c r="E4">
-        <v>0.11256499023189617</v>
+        <v>0.11412140129938592</v>
       </c>
       <c r="F4">
-        <v>9.0215659227504252E-3</v>
+        <v>9.1463051069259893E-3</v>
       </c>
       <c r="G4">
-        <v>2.9318991463651786E-2</v>
+        <v>2.9724378633389531E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -777,34 +777,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.58148654109076403</v>
+        <v>0.58952662607887207</v>
       </c>
       <c r="K4">
-        <v>8.343125176613525E-2</v>
+        <v>6.6875729028400346E-2</v>
       </c>
       <c r="L4">
-        <v>4.62739738684949E-3</v>
+        <v>8.5737100279474864E-3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.5279255751651102E-2</v>
+        <v>5.604358971798664E-2</v>
       </c>
       <c r="O4">
-        <v>2.2605332306107888E-2</v>
+        <v>2.2917891204865211E-2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.0365951399248742E-3</v>
+        <v>1.0509279102201628E-3</v>
       </c>
       <c r="R4">
-        <v>5.9384616286288494E-4</v>
+        <v>6.0205714159048058E-4</v>
       </c>
       <c r="S4">
-        <v>9.841770092595431E-3</v>
+        <v>9.97785005728293E-3</v>
       </c>
       <c r="T4">
         <v>2.1338869128776614E-4</v>
@@ -815,22 +815,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.15299997866955595</v>
+        <v>0.12524630732768186</v>
       </c>
       <c r="C5">
-        <v>8.4703981571919135E-2</v>
+        <v>8.7675060136578317E-2</v>
       </c>
       <c r="D5">
-        <v>1.7362071858170436E-3</v>
+        <v>1.7971064240566116E-3</v>
       </c>
       <c r="E5">
-        <v>0.10935737378585704</v>
+        <v>0.11319319523265306</v>
       </c>
       <c r="F5">
-        <v>9.8396533091239993E-3</v>
+        <v>1.018478918689374E-2</v>
       </c>
       <c r="G5">
-        <v>4.7021964297812413E-2</v>
+        <v>4.8671307665157905E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.62909453271861049</v>
+        <v>0.65106986901965147</v>
       </c>
       <c r="K5">
-        <v>5.386705642951832E-2</v>
+        <v>1.6460414377057732E-2</v>
       </c>
       <c r="L5">
-        <v>1.6654682112209552E-3</v>
+        <v>6.0347462708542328E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.1920962781729416E-2</v>
+        <v>4.3391383317096112E-2</v>
       </c>
       <c r="O5">
-        <v>1.3250545809432168E-2</v>
+        <v>1.3715322221282564E-2</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.4530456253206316E-4</v>
+        <v>7.7144688038758896E-4</v>
       </c>
       <c r="R5">
-        <v>3.6121651078824209E-4</v>
+        <v>3.7388654840026051E-4</v>
       </c>
       <c r="S5">
-        <v>6.4357328256387696E-3</v>
+        <v>6.6614727199304433E-3</v>
       </c>
       <c r="T5">
         <v>2.2345287841562286E-4</v>
@@ -877,22 +877,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.12189878878308148</v>
+        <v>9.7182965307886823E-2</v>
       </c>
       <c r="C6">
-        <v>7.5092182925827089E-2</v>
+        <v>7.7335729069117315E-2</v>
       </c>
       <c r="D6">
-        <v>1.3638648076631798E-3</v>
+        <v>1.4046133051762223E-3</v>
       </c>
       <c r="E6">
-        <v>8.3133870967456211E-2</v>
+        <v>8.5617680444270261E-2</v>
       </c>
       <c r="F6">
-        <v>1.0481251169421474E-2</v>
+        <v>1.0794401882608743E-2</v>
       </c>
       <c r="G6">
-        <v>6.7628293100884765E-2</v>
+        <v>6.9648838918731887E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -901,34 +901,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.67246759695256797</v>
+        <v>0.69255906353199637</v>
       </c>
       <c r="K6">
-        <v>4.1274963876776323E-2</v>
+        <v>9.1121498242565536E-3</v>
       </c>
       <c r="L6">
-        <v>9.3224869264185684E-4</v>
+        <v>4.4788708782449553E-3</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.3943239857447106E-2</v>
+        <v>3.4957369716318985E-2</v>
       </c>
       <c r="O6">
-        <v>8.5438673600248087E-3</v>
+        <v>8.7991344186918972E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.8219173960915207E-4</v>
+        <v>3.9361056870677549E-4</v>
       </c>
       <c r="R6">
-        <v>2.8381032158916655E-4</v>
+        <v>2.9228978679603478E-4</v>
       </c>
       <c r="S6">
-        <v>4.4726182280908815E-3</v>
+        <v>4.6062476550840286E-3</v>
       </c>
       <c r="T6">
         <v>2.6387887471105299E-4</v>
@@ -939,22 +939,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>6.1077236524446056E-2</v>
+        <v>5.0738888204635992E-2</v>
       </c>
       <c r="C7">
-        <v>5.91146853229862E-2</v>
+        <v>5.9802997450709668E-2</v>
       </c>
       <c r="D7">
-        <v>4.2662149036889866E-4</v>
+        <v>4.3158893194731462E-4</v>
       </c>
       <c r="E7">
-        <v>4.18187878274685E-2</v>
+        <v>4.2305712162277548E-2</v>
       </c>
       <c r="F7">
-        <v>1.1467589695996176E-2</v>
+        <v>1.1601114572604824E-2</v>
       </c>
       <c r="G7">
-        <v>0.12045795831786313</v>
+        <v>0.121860531521763</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -963,22 +963,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.73387915272161863</v>
+        <v>0.74242420237115636</v>
       </c>
       <c r="K7">
-        <v>1.4208677771436284E-2</v>
+        <v>1.3591194598732289E-3</v>
       </c>
       <c r="L7">
-        <v>1.4155540164177707E-4</v>
+        <v>1.514529096573645E-3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.3732450433978187E-2</v>
+        <v>1.3892346610798285E-2</v>
       </c>
       <c r="O7">
-        <v>3.2029638236527351E-3</v>
+        <v>3.2402580904230677E-3</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.2829309472103174E-4</v>
+        <v>1.2978689769938112E-4</v>
       </c>
       <c r="S7">
-        <v>1.4212640982685114E-3</v>
+        <v>1.437812834173831E-3</v>
       </c>
       <c r="T7">
         <v>1.7325510395039498E-4</v>
@@ -1001,22 +1001,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.9289876159449184E-2</v>
+        <v>3.5557659701198195E-2</v>
       </c>
       <c r="C8">
-        <v>5.3653120840902499E-2</v>
+        <v>5.3873418336153098E-2</v>
       </c>
       <c r="D8">
-        <v>1.7083566590182157E-4</v>
+        <v>1.7153711008079556E-4</v>
       </c>
       <c r="E8">
-        <v>2.8029364225882401E-2</v>
+        <v>2.8144451636188669E-2</v>
       </c>
       <c r="F8">
-        <v>1.1695069958421761E-2</v>
+        <v>1.1743089432000205E-2</v>
       </c>
       <c r="G8">
-        <v>0.14119822735163381</v>
+        <v>0.14177798143363077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.75295897655625055</v>
+        <v>0.75605059497400606</v>
       </c>
       <c r="K8">
-        <v>4.7884044891012599E-3</v>
+        <v>2.1351322269226402E-4</v>
       </c>
       <c r="L8">
-        <v>1.7934583270915156E-5</v>
+        <v>5.0660183595045444E-4</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.837975553851381E-3</v>
+        <v>5.8619460400354245E-3</v>
       </c>
       <c r="O8">
-        <v>1.2413384121522566E-3</v>
+        <v>1.2464352963347518E-3</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.4841336426512224E-5</v>
+        <v>1.4902274340089092E-5</v>
       </c>
       <c r="S8">
-        <v>3.9391102620466104E-4</v>
+        <v>3.9552840858735229E-4</v>
       </c>
       <c r="T8">
         <v>8.3146759422740831E-5</v>
@@ -1063,22 +1063,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.7997503825799281E-2</v>
+        <v>1.7986869650624803E-2</v>
       </c>
       <c r="C9">
-        <v>3.2778501129252263E-2</v>
+        <v>3.2780077372710534E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.9490552095827562E-2</v>
+        <v>1.9491489352083363E-2</v>
       </c>
       <c r="F9">
-        <v>1.1779822423640576E-2</v>
+        <v>1.1780388888469509E-2</v>
       </c>
       <c r="G9">
-        <v>0.17627626478759537</v>
+        <v>0.1762847415116568</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.75884530283606022</v>
+        <v>0.75885459336151051</v>
       </c>
       <c r="K9">
-        <v>5.6930916611950985E-5</v>
+        <v>1.4504026146111945E-5</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.15425225956803E-5</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6.1621119905381724E-4</v>
+        <v>6.1624083124680847E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1.5641461195811668E-4</v>
+        <v>1.564221335805333E-4</v>
       </c>
       <c r="T9">
         <v>7.7674291540075815E-5</v>
@@ -1345,22 +1345,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.513931925459621E-2</v>
+        <v>5.0105309876624878E-2</v>
       </c>
       <c r="C3">
-        <v>6.7806616344282204E-3</v>
+        <v>6.5680726194916042E-3</v>
       </c>
       <c r="D3">
-        <v>5.1083102000759573E-4</v>
+        <v>5.1593078808527743E-4</v>
       </c>
       <c r="E3">
-        <v>2.1971158519003459E-2</v>
+        <v>2.2209522263142361E-2</v>
       </c>
       <c r="F3">
-        <v>7.2842734867175143E-4</v>
+        <v>7.0977606609511123E-4</v>
       </c>
       <c r="G3">
-        <v>1.8954980843573988E-2</v>
+        <v>1.9309830246733876E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1369,34 +1369,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.7635288781839848E-2</v>
+        <v>4.6460694256997739E-2</v>
       </c>
       <c r="K3">
-        <v>8.4354504285639648E-2</v>
+        <v>4.8450197909765659E-2</v>
       </c>
       <c r="L3">
-        <v>5.4959074957140188E-4</v>
+        <v>3.7268255242377661E-3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.1197268487390572E-2</v>
+        <v>1.1319818973560408E-2</v>
       </c>
       <c r="O3">
-        <v>6.1788988981387183E-3</v>
+        <v>6.2655675414268431E-3</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.9481340975486695E-4</v>
+        <v>5.0348799086123979E-4</v>
       </c>
       <c r="R3">
-        <v>1.9416208102061668E-4</v>
+        <v>1.9710557211560529E-4</v>
       </c>
       <c r="S3">
-        <v>2.7407257949966534E-3</v>
+        <v>2.7791334309847883E-3</v>
       </c>
       <c r="T3">
         <v>7.7727657607547717E-5</v>
@@ -1407,22 +1407,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.2620767591445743E-2</v>
+        <v>1.5598460665559971E-2</v>
       </c>
       <c r="C4">
-        <v>3.1736983490393148E-3</v>
+        <v>3.0502643653422703E-3</v>
       </c>
       <c r="D4">
-        <v>1.175115055833802E-4</v>
+        <v>1.1583515874371481E-4</v>
       </c>
       <c r="E4">
-        <v>2.7177514962809457E-2</v>
+        <v>2.7521997616423346E-2</v>
       </c>
       <c r="F4">
-        <v>3.7276112320678152E-4</v>
+        <v>3.6297234536837147E-4</v>
       </c>
       <c r="G4">
-        <v>1.1324458633910476E-3</v>
+        <v>1.0959991677378014E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1431,34 +1431,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.9476067637230528E-2</v>
+        <v>1.8544140695884666E-2</v>
       </c>
       <c r="K4">
-        <v>1.222938086755314E-2</v>
+        <v>1.5294295773448974E-2</v>
       </c>
       <c r="L4">
-        <v>7.5949325651927314E-4</v>
+        <v>7.7995772942866413E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.0323201533946219E-3</v>
+        <v>1.9569529827014103E-3</v>
       </c>
       <c r="O4">
-        <v>1.8672720392113899E-3</v>
+        <v>1.8746417681174503E-3</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.247626967914375E-4</v>
+        <v>5.3188108860449917E-4</v>
       </c>
       <c r="R4">
-        <v>4.0567146390901849E-5</v>
+        <v>4.0540685883036505E-5</v>
       </c>
       <c r="S4">
-        <v>5.6328440586216597E-4</v>
+        <v>5.5941810019434013E-4</v>
       </c>
       <c r="T4">
         <v>6.6629576496940451E-5</v>
@@ -1469,22 +1469,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.3816485566714588E-2</v>
+        <v>8.0645557933019217E-3</v>
       </c>
       <c r="C5">
-        <v>2.8194493152622758E-3</v>
+        <v>2.9597771273653668E-3</v>
       </c>
       <c r="D5">
-        <v>3.2434616481069329E-4</v>
+        <v>3.3587529646605967E-4</v>
       </c>
       <c r="E5">
-        <v>2.324031309149821E-2</v>
+        <v>2.4063927051639632E-2</v>
       </c>
       <c r="F5">
-        <v>6.0062024248207604E-4</v>
+        <v>6.2432522735179506E-4</v>
       </c>
       <c r="G5">
-        <v>1.4685504103466781E-2</v>
+        <v>1.5203081736380497E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1493,34 +1493,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.3561499129226353E-2</v>
+        <v>3.5078757922475015E-2</v>
       </c>
       <c r="K5">
-        <v>1.2201642713343452E-2</v>
+        <v>4.2574406783020763E-3</v>
       </c>
       <c r="L5">
-        <v>3.7088817123578704E-4</v>
+        <v>1.0065482461825478E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.4176293905155542E-3</v>
+        <v>7.6816941363622498E-3</v>
       </c>
       <c r="O5">
-        <v>1.1845977710796386E-3</v>
+        <v>1.2285766938723332E-3</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.520956187667817E-4</v>
+        <v>3.6447159985258416E-4</v>
       </c>
       <c r="R5">
-        <v>3.7821569009973256E-5</v>
+        <v>3.9204725959481073E-5</v>
       </c>
       <c r="S5">
-        <v>1.3418849259067757E-3</v>
+        <v>1.3894589360545378E-3</v>
       </c>
       <c r="T5">
         <v>6.9835329637366311E-5</v>
@@ -1531,22 +1531,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.8073038275615825E-2</v>
+        <v>2.4454106140226556E-2</v>
       </c>
       <c r="C6">
-        <v>1.1665464541891973E-2</v>
+        <v>1.2053513198548535E-2</v>
       </c>
       <c r="D6">
-        <v>1.0815614206168684E-3</v>
+        <v>1.1140162989092782E-3</v>
       </c>
       <c r="E6">
-        <v>1.584192312664379E-2</v>
+        <v>1.6350920617768539E-2</v>
       </c>
       <c r="F6">
-        <v>6.8409279087804835E-4</v>
+        <v>7.1756095300216547E-4</v>
       </c>
       <c r="G6">
-        <v>4.560137442270322E-2</v>
+        <v>4.6972029034275935E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1555,34 +1555,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.3519178835222161E-2</v>
+        <v>4.5662370284373408E-2</v>
       </c>
       <c r="K6">
-        <v>3.2136516895387116E-2</v>
+        <v>1.158893077970089E-2</v>
       </c>
       <c r="L6">
-        <v>1.1764726192002549E-3</v>
+        <v>3.4287830614916082E-3</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2765984649702305E-2</v>
+        <v>2.3450312853217886E-2</v>
       </c>
       <c r="O6">
-        <v>4.6906305668642711E-3</v>
+        <v>4.8320477754287853E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.8579675495006194E-4</v>
+        <v>2.9437741816124371E-4</v>
       </c>
       <c r="R6">
-        <v>5.3547484684318221E-5</v>
+        <v>5.5270373935960475E-5</v>
       </c>
       <c r="S6">
-        <v>3.631918836751586E-3</v>
+        <v>3.7408814918203598E-3</v>
       </c>
       <c r="T6">
         <v>6.6012725573775084E-5</v>
@@ -1593,22 +1593,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.1344508156274398E-2</v>
+        <v>8.6660111659565085E-3</v>
       </c>
       <c r="C7">
-        <v>1.2779328287624731E-2</v>
+        <v>1.2918170768511674E-2</v>
       </c>
       <c r="D7">
-        <v>2.6073720629951277E-4</v>
+        <v>2.6374773960533552E-4</v>
       </c>
       <c r="E7">
-        <v>3.9314553534502056E-2</v>
+        <v>3.9770700456095445E-2</v>
       </c>
       <c r="F7">
-        <v>4.5867373002521366E-4</v>
+        <v>4.5345990792454297E-4</v>
       </c>
       <c r="G7">
-        <v>2.4332117685729345E-2</v>
+        <v>2.4593720368580704E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1617,22 +1617,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.3622066691873458E-2</v>
+        <v>2.3052411584109488E-2</v>
       </c>
       <c r="K7">
-        <v>7.5680843629037731E-3</v>
+        <v>9.2316373074333678E-4</v>
       </c>
       <c r="L7">
-        <v>9.408520238725106E-5</v>
+        <v>7.7927528532857496E-4</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.0738997139665792E-3</v>
+        <v>6.1434921745720517E-3</v>
       </c>
       <c r="O7">
-        <v>1.3208606131390047E-3</v>
+        <v>1.3359575864120127E-3</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>2.7006142240492048E-5</v>
+        <v>2.7298403389224186E-5</v>
       </c>
       <c r="S7">
-        <v>6.9510968571263735E-4</v>
+        <v>7.0309754758112744E-4</v>
       </c>
       <c r="T7">
         <v>7.7299035139329197E-5</v>
@@ -1655,22 +1655,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2.3045209761390823E-3</v>
+        <v>1.6030084164003044E-3</v>
       </c>
       <c r="C8">
-        <v>1.5668722048705821E-3</v>
+        <v>1.5834074975019645E-3</v>
       </c>
       <c r="D8">
-        <v>4.4028713838205708E-5</v>
+        <v>4.4213150172844332E-5</v>
       </c>
       <c r="E8">
-        <v>6.5758945842905731E-3</v>
+        <v>6.6035539325961252E-3</v>
       </c>
       <c r="F8">
-        <v>4.1208445019591701E-4</v>
+        <v>4.1560326997799575E-4</v>
       </c>
       <c r="G8">
-        <v>7.9591232452922208E-3</v>
+        <v>8.005608566397638E-3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1679,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.8987931650937023E-2</v>
+        <v>1.9229891856065245E-2</v>
       </c>
       <c r="K8">
-        <v>1.6892182998378275E-3</v>
+        <v>1.6442155263441955E-4</v>
       </c>
       <c r="L8">
-        <v>8.0275116674694001E-6</v>
+        <v>1.6515037752624261E-4</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.5495152022975004E-3</v>
+        <v>1.5559987712367581E-3</v>
       </c>
       <c r="O8">
-        <v>4.166486339669816E-4</v>
+        <v>4.1837977617685697E-4</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.9696345613990662E-5</v>
+        <v>2.9818318495340176E-5</v>
       </c>
       <c r="S8">
-        <v>1.3487852372434547E-4</v>
+        <v>1.3543867502493437E-4</v>
       </c>
       <c r="T8">
         <v>5.7561296149109135E-5</v>
@@ -1717,22 +1717,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.5165843761471602E-3</v>
+        <v>1.5166838948397032E-3</v>
       </c>
       <c r="C9">
-        <v>2.8493355623993573E-3</v>
+        <v>2.8495039071843994E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.7176186723718277E-3</v>
+        <v>3.7178059333668437E-3</v>
       </c>
       <c r="F9">
-        <v>7.4434429361880979E-4</v>
+        <v>7.4439557496279842E-4</v>
       </c>
       <c r="G9">
-        <v>9.3942515285742132E-3</v>
+        <v>9.3949780674024465E-3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1741,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.878466662670145E-2</v>
+        <v>3.8773205622090204E-2</v>
       </c>
       <c r="K9">
-        <v>1.1663265482045518E-5</v>
+        <v>1.0778868188672789E-5</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.0396520750000577E-6</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.1549137814739246E-5</v>
+        <v>4.1551895052804621E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>3.1303259669045993E-4</v>
+        <v>3.1304765620806418E-4</v>
       </c>
       <c r="T9">
         <v>4.8093948819845421E-5</v>
